--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzan\Documents\Werk\FlexDelft\Showing physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156BB1D-5238-4E80-BBB6-9F9FE59D9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E1020A-06A7-4DF3-9A60-8C6763424146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>Demo number</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Almost</t>
+  </si>
+  <si>
+    <t>No figures yet</t>
+  </si>
+  <si>
+    <t>No figures yet; might be interesting to show the youtube video that is referred to</t>
   </si>
 </sst>
 </file>
@@ -509,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -620,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -759,8 +765,11 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -773,8 +782,11 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -786,6 +798,9 @@
       </c>
       <c r="B19" t="s">
         <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzan\Documents\Werk\FlexDelft\Showing physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E1020A-06A7-4DF3-9A60-8C6763424146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29080C20-F824-48F0-A161-19673C364065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,10 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,7 +523,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +772,7 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D17" t="s">
@@ -782,7 +789,7 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" t="s">
@@ -799,7 +806,7 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzan\Documents\Werk\FlexDelft\Showing physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29080C20-F824-48F0-A161-19673C364065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F2BD7-FB82-48D1-AABF-7383563B3059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Demo number</t>
   </si>
@@ -135,7 +135,10 @@
     <t>No figures yet</t>
   </si>
   <si>
-    <t>No figures yet; might be interesting to show the youtube video that is referred to</t>
+    <t>No preparation? No figures yet</t>
+  </si>
+  <si>
+    <t>might be interesting to show the youtube video that is referred to</t>
   </si>
 </sst>
 </file>
@@ -173,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,11 +197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,7 +519,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +614,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
@@ -632,6 +631,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
@@ -646,6 +648,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
@@ -772,9 +777,6 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
@@ -789,9 +791,6 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
@@ -806,11 +805,11 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
+      <c r="C19" t="s">
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -823,8 +822,11 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -837,8 +839,11 @@
       <c r="B21" t="s">
         <v>23</v>
       </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -851,8 +856,11 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -865,8 +873,11 @@
       <c r="B23" t="s">
         <v>25</v>
       </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -879,8 +890,11 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -893,8 +907,11 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -907,8 +924,11 @@
       <c r="B26" t="s">
         <v>28</v>
       </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29080C20-F824-48F0-A161-19673C364065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03208FA4-2B44-45DE-AC8F-80BA2F148DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Demo number</t>
   </si>
@@ -136,6 +136,72 @@
   </si>
   <si>
     <t>No figures yet; might be interesting to show the youtube video that is referred to</t>
+  </si>
+  <si>
+    <t>SdF ed. No</t>
+  </si>
+  <si>
+    <t>1 04</t>
+  </si>
+  <si>
+    <t>1 11</t>
+  </si>
+  <si>
+    <t>1 54</t>
+  </si>
+  <si>
+    <t>1 63</t>
+  </si>
+  <si>
+    <t>1 39</t>
+  </si>
+  <si>
+    <t>1 41</t>
+  </si>
+  <si>
+    <t>2 A01</t>
+  </si>
+  <si>
+    <t>2 A09</t>
+  </si>
+  <si>
+    <t>2 A15</t>
+  </si>
+  <si>
+    <t>2 B18</t>
+  </si>
+  <si>
+    <t>2 B16</t>
+  </si>
+  <si>
+    <t>2 B12</t>
+  </si>
+  <si>
+    <t>2 B06</t>
+  </si>
+  <si>
+    <t>2 B09</t>
+  </si>
+  <si>
+    <t>2 B27</t>
+  </si>
+  <si>
+    <t>2 B30</t>
+  </si>
+  <si>
+    <t>2 B31</t>
+  </si>
+  <si>
+    <t>2 B46</t>
+  </si>
+  <si>
+    <t>2 B53</t>
+  </si>
+  <si>
+    <t>2 B54</t>
+  </si>
+  <si>
+    <t>2 C06</t>
   </si>
 </sst>
 </file>
@@ -520,397 +586,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="106.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
       <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
       <c r="E19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
       <c r="E20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
       <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
       </c>
     </row>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzan\Documents\Werk\FlexDelft\Showing physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F2BD7-FB82-48D1-AABF-7383563B3059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE9016-3ECE-4A90-B5DF-47D88C57283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>Demo number</t>
   </si>
@@ -139,6 +139,72 @@
   </si>
   <si>
     <t>might be interesting to show the youtube video that is referred to</t>
+  </si>
+  <si>
+    <t>SdF ed. No</t>
+  </si>
+  <si>
+    <t>1 04</t>
+  </si>
+  <si>
+    <t>1 11</t>
+  </si>
+  <si>
+    <t>1 39</t>
+  </si>
+  <si>
+    <t>1 41</t>
+  </si>
+  <si>
+    <t>1 54</t>
+  </si>
+  <si>
+    <t>1 63</t>
+  </si>
+  <si>
+    <t>2 A01</t>
+  </si>
+  <si>
+    <t>2 A09</t>
+  </si>
+  <si>
+    <t>2 A15</t>
+  </si>
+  <si>
+    <t>2 B06</t>
+  </si>
+  <si>
+    <t>2 B09</t>
+  </si>
+  <si>
+    <t>2 B12</t>
+  </si>
+  <si>
+    <t>2 B16</t>
+  </si>
+  <si>
+    <t>2 B18</t>
+  </si>
+  <si>
+    <t>2 B27</t>
+  </si>
+  <si>
+    <t>2 B30</t>
+  </si>
+  <si>
+    <t>2 B31</t>
+  </si>
+  <si>
+    <t>2 B46</t>
+  </si>
+  <si>
+    <t>2 B53</t>
+  </si>
+  <si>
+    <t>2 B54</t>
+  </si>
+  <si>
+    <t>2 C06</t>
   </si>
 </sst>
 </file>
@@ -516,421 +582,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="106.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
       <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
       <c r="E21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
       <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
       <c r="E23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
       <c r="E25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
       <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
       </c>
     </row>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE9016-3ECE-4A90-B5DF-47D88C57283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC13126-8FEC-42B5-822B-4B47E3FA91DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Demo number</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>2 C06</t>
+  </si>
+  <si>
+    <t>Can't find worksheet that is mentioned, maybe with embedded link?</t>
+  </si>
+  <si>
+    <t>Cartoon figure is missing</t>
+  </si>
+  <si>
+    <t>Dutch text in figure</t>
   </si>
 </sst>
 </file>
@@ -584,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,6 +654,9 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
@@ -682,6 +694,9 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -792,6 +807,9 @@
       </c>
       <c r="C11" t="s">
         <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC13126-8FEC-42B5-822B-4B47E3FA91DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B769F50-780B-4363-8EF2-7662C757902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
   <si>
     <t>Demo number</t>
   </si>
@@ -214,6 +214,69 @@
   </si>
   <si>
     <t>Dutch text in figure</t>
+  </si>
+  <si>
+    <t>1 01</t>
+  </si>
+  <si>
+    <t>Opwaartse en Neerwaartsekracht</t>
+  </si>
+  <si>
+    <t>1 03</t>
+  </si>
+  <si>
+    <t>Waardoor stijgt het water?</t>
+  </si>
+  <si>
+    <t>1 10</t>
+  </si>
+  <si>
+    <t>Warm &amp; Koud, Zoet &amp; Zout</t>
+  </si>
+  <si>
+    <t>1 17</t>
+  </si>
+  <si>
+    <t>Blussen zonder water</t>
+  </si>
+  <si>
+    <t>1 21</t>
+  </si>
+  <si>
+    <t>Lucht is niet niks</t>
+  </si>
+  <si>
+    <t>1 29</t>
+  </si>
+  <si>
+    <t>Gloeilamp uitblazen</t>
+  </si>
+  <si>
+    <t>1 37</t>
+  </si>
+  <si>
+    <t>Twee veren, serie of parallel?</t>
+  </si>
+  <si>
+    <t>Schaduw van een vlam</t>
+  </si>
+  <si>
+    <t>1 52</t>
+  </si>
+  <si>
+    <t>1 57</t>
+  </si>
+  <si>
+    <t>Spelen met dichtheid</t>
+  </si>
+  <si>
+    <t>Vallend kaars</t>
+  </si>
+  <si>
+    <t>1 59</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
@@ -251,12 +314,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,10 +341,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +1034,7 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" t="s">
@@ -1001,7 +1071,7 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
@@ -1038,7 +1108,7 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" t="s">
@@ -1058,7 +1128,7 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" t="s">
@@ -1078,7 +1148,7 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" t="s">
@@ -1086,6 +1156,466 @@
       </c>
       <c r="F26" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B769F50-780B-4363-8EF2-7662C757902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1F87F-2FEC-4BE7-9743-5AA1157523CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>Demo number</t>
   </si>
@@ -277,6 +277,75 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>2 A04</t>
+  </si>
+  <si>
+    <t>2 A05</t>
+  </si>
+  <si>
+    <t>2 A08</t>
+  </si>
+  <si>
+    <t>2 A10</t>
+  </si>
+  <si>
+    <t>2 A12</t>
+  </si>
+  <si>
+    <t>2 B02</t>
+  </si>
+  <si>
+    <t>2 B07</t>
+  </si>
+  <si>
+    <t>2 B11</t>
+  </si>
+  <si>
+    <t>2 B13</t>
+  </si>
+  <si>
+    <t>2 B24</t>
+  </si>
+  <si>
+    <t>2 B28</t>
+  </si>
+  <si>
+    <t>2 B35</t>
+  </si>
+  <si>
+    <t>uitbreiden met hysterese</t>
+  </si>
+  <si>
+    <t>2 B39</t>
+  </si>
+  <si>
+    <t>2 B42</t>
+  </si>
+  <si>
+    <t>2 B44 &amp; 47</t>
+  </si>
+  <si>
+    <t>samennemen</t>
+  </si>
+  <si>
+    <t>2 B49</t>
+  </si>
+  <si>
+    <t>2 B50</t>
+  </si>
+  <si>
+    <t>2 C01</t>
+  </si>
+  <si>
+    <t>2 C04</t>
+  </si>
+  <si>
+    <t>2 C07</t>
+  </si>
+  <si>
+    <t>2 C10</t>
   </si>
 </sst>
 </file>
@@ -663,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,138 +1371,210 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1F87F-2FEC-4BE7-9743-5AA1157523CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7027BF-D5C4-404D-9238-DBB2F45631BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7027BF-D5C4-404D-9238-DBB2F45631BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3AC3D2-92B9-4FAD-9A39-0773928BA9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="6828" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
   <si>
     <t>Demo number</t>
   </si>
@@ -346,6 +346,102 @@
   </si>
   <si>
     <t>2 C10</t>
+  </si>
+  <si>
+    <t>Spinning Circles in a Wine Glass</t>
+  </si>
+  <si>
+    <t>Optics with LED Lamps</t>
+  </si>
+  <si>
+    <t>Cloud Formulation</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>Afkoelen van metalen bollen</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>Een ballon die alles kan</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>Staande golven</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>Draaiende ballon</t>
+  </si>
+  <si>
+    <t>Natuurkunde vd panfluit</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>Meten aan sterren</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B38&amp;B39</t>
+  </si>
+  <si>
+    <t>Zingende en klinkende staaf</t>
+  </si>
+  <si>
+    <t>Transit van een bolletje</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>Balletje in een buis</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>Lorentzkracht</t>
+  </si>
+  <si>
+    <t>Trage lampjes</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>Inductiebuizen</t>
+  </si>
+  <si>
+    <t>Fluorescerende olijfolie</t>
+  </si>
+  <si>
+    <t>B58</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C02</t>
   </si>
 </sst>
 </file>
@@ -732,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,162 +1675,258 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3AC3D2-92B9-4FAD-9A39-0773928BA9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA03F710-E262-4AF1-AC61-7052F5B90C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6828" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
   <si>
     <t>Demo number</t>
   </si>
@@ -442,6 +442,93 @@
   </si>
   <si>
     <t>C02</t>
+  </si>
+  <si>
+    <t>Cylindrical puzzle</t>
+  </si>
+  <si>
+    <t>Roll stop</t>
+  </si>
+  <si>
+    <t>Determining g</t>
+  </si>
+  <si>
+    <t>Flameshadow</t>
+  </si>
+  <si>
+    <t>Magic siphon</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>Flamecooler</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>trapped candles</t>
+  </si>
+  <si>
+    <t>3 A11</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Crookes</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>draaiende blokjes</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>Uphill</t>
+  </si>
+  <si>
+    <t>Collissions</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>Spankracht slinger</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>Krachtige ballon</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>Koken door koelen</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>Condensatie in infrarood</t>
   </si>
 </sst>
 </file>
@@ -479,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,11 +599,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -828,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="C50" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,8 +997,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1649,21 +1743,45 @@
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -1674,68 +1792,131 @@
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="C64" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\showing-physics\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA03F710-E262-4AF1-AC61-7052F5B90C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{54D9BEBC-F946-48D8-A401-495DD07D3BFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="171">
   <si>
     <t>Demo number</t>
   </si>
@@ -207,15 +206,6 @@
     <t>2 C06</t>
   </si>
   <si>
-    <t>Can't find worksheet that is mentioned, maybe with embedded link?</t>
-  </si>
-  <si>
-    <t>Cartoon figure is missing</t>
-  </si>
-  <si>
-    <t>Dutch text in figure</t>
-  </si>
-  <si>
     <t>1 01</t>
   </si>
   <si>
@@ -529,12 +519,31 @@
   </si>
   <si>
     <t>Condensatie in infrarood</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch text in figure,foto markthal missing, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't find worksheet that is mentioned, maybe with embedded link? Figuren in t NL
+</t>
+  </si>
+  <si>
+    <t>Cartoon figure is missing, incl movieclip</t>
+  </si>
+  <si>
+    <t>captions</t>
+  </si>
+  <si>
+    <t>captuions, formulas, dutch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,16 +608,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,24 +934,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0A0FA-7B3B-48FB-A231-8EB90CFB0395}">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:C67"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="106.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,50 +971,54 @@
       <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="H1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1013,7 +1033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1024,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1033,7 +1053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1053,7 +1073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1073,7 +1093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1093,7 +1113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1110,7 +1130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1127,7 +1147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -1147,7 +1167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1157,6 +1177,9 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
@@ -1164,7 +1187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1174,6 +1197,9 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
@@ -1181,7 +1207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1198,7 +1224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1232,7 +1258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1249,7 +1275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1263,7 +1289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1283,7 +1309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1303,7 +1329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1320,7 +1346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1340,7 +1366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1357,7 +1383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1377,7 +1403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1397,7 +1423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1417,187 +1443,187 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
       <c r="D34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>80</v>
       </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1605,529 +1631,529 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
   <si>
     <t>Demo number</t>
   </si>
@@ -938,7 +938,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,6 +1268,9 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
       <c r="E17" t="s">
         <v>32</v>
       </c>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\showing-physics\demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD05B66-46C7-4353-9242-09784522A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
   <si>
     <t>Demo number</t>
   </si>
@@ -543,7 +544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,7 +624,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -934,25 +935,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="106.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
     <col min="8" max="8" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +976,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -993,7 +994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1053,19 +1054,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" t="s">
         <v>32</v>
       </c>
@@ -1073,19 +1072,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" t="s">
         <v>32</v>
       </c>
@@ -1093,19 +1090,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1130,7 +1125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1147,7 +1142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1167,7 +1162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1187,7 +1182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1207,7 +1202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1224,7 +1219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1258,7 +1253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1349,7 +1344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1369,7 +1364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1386,7 +1381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1406,7 +1401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1460,7 +1455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1474,7 +1469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1488,7 +1483,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1516,7 +1511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1544,7 +1539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1558,7 +1553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1572,7 +1567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1586,7 +1581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1594,7 +1589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1610,7 +1605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1618,7 +1613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1634,7 +1629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1642,7 +1637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1650,7 +1645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1658,7 +1653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1666,7 +1661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1674,7 +1669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1682,7 +1677,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1693,7 +1688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1701,7 +1696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1709,7 +1704,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1720,7 +1715,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1728,7 +1723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1736,7 +1731,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1744,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1752,7 +1747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1760,7 +1755,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1768,7 +1763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1779,7 +1774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1790,7 +1785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1801,7 +1796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1812,12 +1807,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1825,7 +1820,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1836,7 +1831,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1847,7 +1842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1858,7 +1853,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1866,7 +1861,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1877,7 +1872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1899,7 +1894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1910,7 +1905,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1918,7 +1913,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1929,7 +1924,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1951,7 +1946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1962,7 +1957,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1973,7 +1968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1984,7 +1979,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1995,7 +1990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2006,7 +2001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2017,7 +2012,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2028,7 +2023,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2039,7 +2034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2050,7 +2045,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2061,7 +2056,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2072,7 +2067,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2083,7 +2078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2094,7 +2089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2105,7 +2100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2116,47 +2111,47 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD05B66-46C7-4353-9242-09784522A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5263D464-AE34-4693-98DC-C256FFFA11C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,13 +525,6 @@
     <t>Opmerkingen</t>
   </si>
   <si>
-    <t xml:space="preserve">Dutch text in figure,foto markthal missing, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can't find worksheet that is mentioned, maybe with embedded link? Figuren in t NL
-</t>
-  </si>
-  <si>
     <t>Cartoon figure is missing, incl movieclip</t>
   </si>
   <si>
@@ -539,6 +532,12 @@
   </si>
   <si>
     <t>captuions, formulas, dutch</t>
+  </si>
+  <si>
+    <t>Worksheet in document, not translated yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto markthal missing, </t>
   </si>
 </sst>
 </file>
@@ -938,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>31</v>
@@ -1045,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1153,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -1173,7 +1172,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1193,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5263D464-AE34-4693-98DC-C256FFFA11C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DC8D52-FC43-4ED8-B3DD-EA8AF60C77EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,13 +531,13 @@
     <t>captions</t>
   </si>
   <si>
-    <t>captuions, formulas, dutch</t>
-  </si>
-  <si>
     <t>Worksheet in document, not translated yet</t>
   </si>
   <si>
     <t xml:space="preserve">foto markthal missing, </t>
+  </si>
+  <si>
+    <t>captuions, formulas</t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>31</v>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1192,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\showing-physics\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DC8D52-FC43-4ED8-B3DD-EA8AF60C77EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
   <si>
     <t>Demo number</t>
   </si>
@@ -141,204 +140,45 @@
     <t>might be interesting to show the youtube video that is referred to</t>
   </si>
   <si>
-    <t>SdF ed. No</t>
-  </si>
-  <si>
-    <t>1 04</t>
-  </si>
-  <si>
-    <t>1 11</t>
-  </si>
-  <si>
-    <t>1 39</t>
-  </si>
-  <si>
-    <t>1 41</t>
-  </si>
-  <si>
-    <t>1 54</t>
-  </si>
-  <si>
-    <t>1 63</t>
-  </si>
-  <si>
-    <t>2 A01</t>
-  </si>
-  <si>
-    <t>2 A09</t>
-  </si>
-  <si>
-    <t>2 A15</t>
-  </si>
-  <si>
-    <t>2 B06</t>
-  </si>
-  <si>
-    <t>2 B09</t>
-  </si>
-  <si>
-    <t>2 B12</t>
-  </si>
-  <si>
-    <t>2 B16</t>
-  </si>
-  <si>
-    <t>2 B18</t>
-  </si>
-  <si>
-    <t>2 B27</t>
-  </si>
-  <si>
-    <t>2 B30</t>
-  </si>
-  <si>
-    <t>2 B31</t>
-  </si>
-  <si>
-    <t>2 B46</t>
-  </si>
-  <si>
-    <t>2 B53</t>
-  </si>
-  <si>
-    <t>2 B54</t>
-  </si>
-  <si>
-    <t>2 C06</t>
-  </si>
-  <si>
-    <t>1 01</t>
-  </si>
-  <si>
     <t>Opwaartse en Neerwaartsekracht</t>
   </si>
   <si>
-    <t>1 03</t>
-  </si>
-  <si>
     <t>Waardoor stijgt het water?</t>
   </si>
   <si>
-    <t>1 10</t>
-  </si>
-  <si>
     <t>Warm &amp; Koud, Zoet &amp; Zout</t>
   </si>
   <si>
-    <t>1 17</t>
-  </si>
-  <si>
     <t>Blussen zonder water</t>
   </si>
   <si>
-    <t>1 21</t>
-  </si>
-  <si>
     <t>Lucht is niet niks</t>
   </si>
   <si>
-    <t>1 29</t>
-  </si>
-  <si>
     <t>Gloeilamp uitblazen</t>
   </si>
   <si>
-    <t>1 37</t>
-  </si>
-  <si>
     <t>Twee veren, serie of parallel?</t>
   </si>
   <si>
     <t>Schaduw van een vlam</t>
   </si>
   <si>
-    <t>1 52</t>
-  </si>
-  <si>
-    <t>1 57</t>
-  </si>
-  <si>
     <t>Spelen met dichtheid</t>
   </si>
   <si>
     <t>Vallend kaars</t>
   </si>
   <si>
-    <t>1 59</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
-    <t>2 A04</t>
-  </si>
-  <si>
-    <t>2 A05</t>
-  </si>
-  <si>
-    <t>2 A08</t>
-  </si>
-  <si>
-    <t>2 A10</t>
-  </si>
-  <si>
-    <t>2 A12</t>
-  </si>
-  <si>
-    <t>2 B02</t>
-  </si>
-  <si>
-    <t>2 B07</t>
-  </si>
-  <si>
-    <t>2 B11</t>
-  </si>
-  <si>
-    <t>2 B13</t>
-  </si>
-  <si>
-    <t>2 B24</t>
-  </si>
-  <si>
-    <t>2 B28</t>
-  </si>
-  <si>
-    <t>2 B35</t>
-  </si>
-  <si>
     <t>uitbreiden met hysterese</t>
   </si>
   <si>
-    <t>2 B39</t>
-  </si>
-  <si>
-    <t>2 B42</t>
-  </si>
-  <si>
-    <t>2 B44 &amp; 47</t>
-  </si>
-  <si>
     <t>samennemen</t>
   </si>
   <si>
-    <t>2 B49</t>
-  </si>
-  <si>
-    <t>2 B50</t>
-  </si>
-  <si>
-    <t>2 C01</t>
-  </si>
-  <si>
-    <t>2 C04</t>
-  </si>
-  <si>
-    <t>2 C07</t>
-  </si>
-  <si>
-    <t>2 C10</t>
-  </si>
-  <si>
     <t>Spinning Circles in a Wine Glass</t>
   </si>
   <si>
@@ -348,93 +188,45 @@
     <t>Cloud Formulation</t>
   </si>
   <si>
-    <t>B23</t>
-  </si>
-  <si>
     <t>Afkoelen van metalen bollen</t>
   </si>
   <si>
-    <t>B24</t>
-  </si>
-  <si>
     <t>Een ballon die alles kan</t>
   </si>
   <si>
-    <t>B27</t>
-  </si>
-  <si>
     <t>Staande golven</t>
   </si>
   <si>
-    <t>B31</t>
-  </si>
-  <si>
     <t>Draaiende ballon</t>
   </si>
   <si>
     <t>Natuurkunde vd panfluit</t>
   </si>
   <si>
-    <t>B32</t>
-  </si>
-  <si>
     <t>Meten aan sterren</t>
   </si>
   <si>
-    <t>B35</t>
-  </si>
-  <si>
-    <t>B38&amp;B39</t>
-  </si>
-  <si>
     <t>Zingende en klinkende staaf</t>
   </si>
   <si>
     <t>Transit van een bolletje</t>
   </si>
   <si>
-    <t>B40</t>
-  </si>
-  <si>
-    <t>B46</t>
-  </si>
-  <si>
     <t>Balletje in een buis</t>
   </si>
   <si>
-    <t>B51</t>
-  </si>
-  <si>
     <t>Lorentzkracht</t>
   </si>
   <si>
     <t>Trage lampjes</t>
   </si>
   <si>
-    <t>B52</t>
-  </si>
-  <si>
-    <t>B56</t>
-  </si>
-  <si>
     <t>Inductiebuizen</t>
   </si>
   <si>
     <t>Fluorescerende olijfolie</t>
   </si>
   <si>
-    <t>B58</t>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
-    <t>C06</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
     <t>Cylindrical puzzle</t>
   </si>
   <si>
@@ -450,75 +242,33 @@
     <t>Magic siphon</t>
   </si>
   <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>A06</t>
-  </si>
-  <si>
-    <t>A09</t>
-  </si>
-  <si>
     <t>Flamecooler</t>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
     <t>trapped candles</t>
   </si>
   <si>
-    <t>3 A11</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
     <t>Crookes</t>
   </si>
   <si>
-    <t>B08</t>
-  </si>
-  <si>
     <t>draaiende blokjes</t>
   </si>
   <si>
-    <t>B09</t>
-  </si>
-  <si>
     <t>Uphill</t>
   </si>
   <si>
     <t>Collissions</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
     <t>Spankracht slinger</t>
   </si>
   <si>
-    <t>B16</t>
-  </si>
-  <si>
     <t>Krachtige ballon</t>
   </si>
   <si>
-    <t>B18</t>
-  </si>
-  <si>
     <t>Koken door koelen</t>
   </si>
   <si>
-    <t>B22</t>
-  </si>
-  <si>
     <t>Condensatie in infrarood</t>
   </si>
   <si>
@@ -538,12 +288,108 @@
   </si>
   <si>
     <t>captuions, formulas</t>
+  </si>
+  <si>
+    <t>SdF</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Rijke kook verschijnselen</t>
+  </si>
+  <si>
+    <t>Wet van Boyle</t>
+  </si>
+  <si>
+    <t>Krommunicerende vaten</t>
+  </si>
+  <si>
+    <t>Vuurtornado</t>
+  </si>
+  <si>
+    <t>Het blik dat terugkomt</t>
+  </si>
+  <si>
+    <t>Coole blikjes</t>
+  </si>
+  <si>
+    <t>Lekkende flesjes</t>
+  </si>
+  <si>
+    <t>Omhoog druppelen</t>
+  </si>
+  <si>
+    <t>Twee keer zoveel is niet twee keer zo zwaar</t>
+  </si>
+  <si>
+    <t>Zwevende pareltjes</t>
+  </si>
+  <si>
+    <t>Wisselspaning over een lampje</t>
+  </si>
+  <si>
+    <t>Hotspots in magnetron</t>
+  </si>
+  <si>
+    <t>Schaduwen</t>
+  </si>
+  <si>
+    <t>Koude straling &amp; Vreemde schaduwen</t>
+  </si>
+  <si>
+    <t>Gloeilamp als zon</t>
+  </si>
+  <si>
+    <t>Gevangen laserstraal</t>
+  </si>
+  <si>
+    <t>44&amp;47</t>
+  </si>
+  <si>
+    <t>38&amp;39</t>
+  </si>
+  <si>
+    <t>Mysterieus fonteintje</t>
+  </si>
+  <si>
+    <t>Rollende voorwerpen</t>
+  </si>
+  <si>
+    <t>DNA en pennen veertje</t>
+  </si>
+  <si>
+    <t>Hoogspanning</t>
+  </si>
+  <si>
+    <t>Kanon van Gauss</t>
+  </si>
+  <si>
+    <t>Vallende veer</t>
+  </si>
+  <si>
+    <t>Radioactief verval</t>
+  </si>
+  <si>
+    <t>Implosie</t>
+  </si>
+  <si>
+    <t>Leeglopende flessen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +440,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -608,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -620,10 +472,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -934,1223 +788,1922 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E100" sqref="B100:E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="106.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="90" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="106.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" customWidth="1"/>
+    <col min="10" max="10" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
+      <c r="B2" s="5">
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
       <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>168</v>
+        <v>90</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>51</v>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16">
         <v>18</v>
       </c>
       <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>53</v>
+      <c r="B17">
+        <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
       <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>54</v>
+      <c r="B19">
+        <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
       <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
+      <c r="B22">
+        <v>2</v>
       </c>
       <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
       <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>57</v>
+      <c r="B24">
+        <v>2</v>
       </c>
       <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
+      <c r="B25">
+        <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>59</v>
+      <c r="B26">
+        <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>62</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>64</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>66</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>70</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>72</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D33">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D34">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>76</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>96</v>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>23</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67">
+        <v>13</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>143</v>
+      <c r="B71">
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>142</v>
+      <c r="B72">
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
       <c r="C73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>141</v>
+      <c r="B74">
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>163</v>
+      <c r="B75">
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D75">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>109</v>
+      <c r="B76">
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D76">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>109</v>
+      <c r="B77">
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>111</v>
+      <c r="B78">
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D78">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>113</v>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D79">
+        <v>31</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>116</v>
+      <c r="B80">
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D80">
+        <v>32</v>
+      </c>
+      <c r="E80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>118</v>
+      <c r="B81">
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D81">
+        <v>35</v>
+      </c>
+      <c r="E81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>119</v>
+      <c r="B82">
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>122</v>
+      <c r="B83">
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="E83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>123</v>
+      <c r="B84">
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D84">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>125</v>
+      <c r="B85">
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D85">
+        <v>51</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>128</v>
+      <c r="B86">
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D86">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>129</v>
+      <c r="B87">
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D87">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>132</v>
+      <c r="B88">
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D88">
+        <v>57</v>
+      </c>
+      <c r="E88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>133</v>
+      <c r="B89">
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>134</v>
+      <c r="B90">
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>135</v>
+      <c r="B91">
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98">
+        <v>47</v>
+      </c>
+      <c r="E98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99">
+        <v>58</v>
+      </c>
+      <c r="E99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="125">
   <si>
     <t>Demo number</t>
   </si>
@@ -384,13 +384,28 @@
   </si>
   <si>
     <t>Leeglopende flessen</t>
+  </si>
+  <si>
+    <t>B56 Goochelen met een spiegel.</t>
+  </si>
+  <si>
+    <t>Zwart of Wit</t>
+  </si>
+  <si>
+    <t>Balletje tik</t>
+  </si>
+  <si>
+    <t>Lichtsnelheid in een vloeistof</t>
+  </si>
+  <si>
+    <t>lading meten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +434,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -460,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -474,6 +495,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -789,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E100" sqref="B100:E100"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,11 +1879,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="7">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="7">
+        <v>55</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -2094,12 +2127,18 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="B63" s="8">
+        <v>3</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="8">
+        <v>44</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -2115,7 +2154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2132,7 +2171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2149,7 +2188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2166,20 +2205,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <v>3</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="8">
+        <v>50</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2196,7 +2240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2210,7 +2254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2227,7 +2271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2244,7 +2288,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2261,7 +2305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2278,7 +2322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2295,7 +2339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2312,7 +2356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2329,7 +2373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2346,7 +2390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2363,7 +2407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2707,8 +2751,29 @@
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100">
+        <v>41</v>
+      </c>
+      <c r="E100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\showing-physics\demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0CC60-3066-4A61-A470-4E928E52BB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +405,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -494,17 +495,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,25 +812,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="106.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="106.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.88671875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
     <col min="10" max="10" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -886,7 +883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -912,7 +909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -938,7 +935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -964,7 +961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -988,7 +985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1108,7 +1105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1160,7 +1157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1229,7 +1226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1304,7 +1301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1382,7 +1379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1460,7 +1457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1526,7 +1523,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1646,7 +1643,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1703,7 +1700,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1737,7 +1734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1771,25 +1768,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
-        <v>2</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1806,7 +1802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1823,7 +1819,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1857,7 +1853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1874,7 +1870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1887,11 +1883,11 @@
       <c r="D48" s="7">
         <v>55</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1911,7 +1907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1928,7 +1924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1945,7 +1941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1965,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1982,7 +1978,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2013,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2027,7 +2023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2041,7 +2037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2055,7 +2051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2072,7 +2068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2089,7 +2085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2106,7 +2102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2123,24 +2119,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="8">
-        <v>3</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63">
         <v>44</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2154,7 +2150,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2171,7 +2167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2188,7 +2184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2205,25 +2201,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="8">
-        <v>3</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="8">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68">
         <v>50</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2254,7 +2250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2271,7 +2267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2288,7 +2284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2305,7 +2301,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2322,7 +2318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2339,7 +2335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2373,7 +2369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2390,7 +2386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2407,7 +2403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2424,7 +2420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2441,7 +2437,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2458,7 +2454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2475,7 +2471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2492,7 +2488,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2509,7 +2505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2526,7 +2522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2543,7 +2539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2577,7 +2573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2594,7 +2590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2611,7 +2607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2645,7 +2641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2662,7 +2658,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2679,7 +2675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2696,7 +2692,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2713,7 +2709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2730,7 +2726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2747,7 +2743,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2764,13 +2760,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="9" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E104" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="9"/>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0CC60-3066-4A61-A470-4E928E52BB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769389A7-147B-4369-A930-05E955DEF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,16 +1331,16 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="4">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
@@ -1380,19 +1380,19 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="4">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769389A7-147B-4369-A930-05E955DEF3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E482E23-D428-4020-8EE5-DB7EE7910DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="125">
-  <si>
-    <t>Demo number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
   <si>
     <t>Demo name</t>
   </si>
@@ -273,9 +270,6 @@
     <t>Condensatie in infrarood</t>
   </si>
   <si>
-    <t>Opmerkingen</t>
-  </si>
-  <si>
     <t>Cartoon figure is missing, incl movieclip</t>
   </si>
   <si>
@@ -400,6 +394,15 @@
   </si>
   <si>
     <t>lading meten</t>
+  </si>
+  <si>
+    <t>Checked by author</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Freek</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -497,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -815,98 +820,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="106.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="10" max="10" width="90" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="5">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -917,22 +927,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -943,22 +953,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -969,20 +979,20 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="4">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -993,20 +1003,20 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="4">
+        <v>89</v>
+      </c>
+      <c r="D7" s="3">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1017,20 +1027,20 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="4">
+        <v>89</v>
+      </c>
+      <c r="D8" s="3">
         <v>63</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1041,19 +1051,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
         <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,19 +1074,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
         <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1087,22 +1097,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1113,22 +1123,22 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1139,22 +1149,22 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1165,19 +1175,19 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
         <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1188,19 +1198,19 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
         <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,19 +1221,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
         <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1234,22 +1244,22 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
         <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1260,19 +1270,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
         <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1283,22 +1293,22 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1309,48 +1319,48 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
         <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3">
         <v>43</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>23</v>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
         <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1361,48 +1371,48 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>46</v>
       </c>
       <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3">
+        <v>48</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
         <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="4">
-        <v>48</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1413,22 +1423,22 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
         <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1439,22 +1449,22 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
         <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1465,22 +1475,22 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
         <v>32</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1491,16 +1501,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1511,16 +1521,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1531,16 +1541,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1551,16 +1561,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1571,16 +1581,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1591,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1611,16 +1621,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1631,16 +1641,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1651,16 +1661,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1671,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>59</v>
       </c>
       <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
         <v>47</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1691,13 +1701,13 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1708,13 +1718,13 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1725,13 +1735,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1742,13 +1752,13 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1759,13 +1769,13 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1776,13 +1786,13 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1793,13 +1803,13 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1810,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1827,13 +1837,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1861,30 +1871,30 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47">
         <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
-        <v>3</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="B48" s="6">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="6">
         <v>55</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>124</v>
+      <c r="E48" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1895,16 +1905,16 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1915,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,13 +1942,13 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D51">
         <v>42</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,16 +1959,16 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1969,13 +1979,13 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,13 +1996,13 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2017,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -2031,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D57">
         <v>7</v>
@@ -2045,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -2059,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>75</v>
+      <c r="E59" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2076,13 +2086,13 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60">
         <v>15</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>74</v>
+      <c r="E60" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2093,13 +2103,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>73</v>
+      <c r="E61" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2110,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>72</v>
+      <c r="E62" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2127,13 +2137,13 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D63">
         <v>44</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>123</v>
+      <c r="E63" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,8 +2156,8 @@
       <c r="D64">
         <v>23</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>81</v>
+      <c r="E64" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2158,13 +2168,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D65">
         <v>18</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>80</v>
+      <c r="E65" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2175,13 +2185,13 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D66">
         <v>16</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>79</v>
+      <c r="E66" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,13 +2202,13 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D67">
         <v>13</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>78</v>
+      <c r="E67" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2209,15 +2219,15 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D68">
         <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
-      </c>
-      <c r="F68" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -2227,13 +2237,13 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D69">
         <v>10</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>77</v>
+      <c r="E69" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2247,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2258,13 +2268,13 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D71">
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2275,13 +2285,13 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2292,13 +2302,13 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2309,13 +2319,13 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2326,13 +2336,13 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2343,13 +2353,13 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,13 +2370,13 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D77">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2377,13 +2387,13 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2394,13 +2404,13 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D79">
         <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2411,13 +2421,13 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D80">
         <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2428,13 +2438,13 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D81">
         <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,13 +2455,13 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2462,13 +2472,13 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D83">
         <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,13 +2489,13 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D84">
         <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2496,13 +2506,13 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D85">
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,13 +2523,13 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D86">
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2530,13 +2540,13 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D87">
         <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2547,13 +2557,13 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D88">
         <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2564,13 +2574,13 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2581,13 +2591,13 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D90">
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2598,13 +2608,13 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2615,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D92">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2632,13 +2642,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D93">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2649,13 +2659,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D94">
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,13 +2676,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D95">
         <v>23</v>
       </c>
       <c r="E95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,16 +2693,16 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D96">
         <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2700,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D97">
         <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2717,16 +2727,16 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D98">
         <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2734,16 +2744,19 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D99">
         <v>58</v>
       </c>
       <c r="E99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2751,22 +2764,22 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D100">
         <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E104" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E111" s="8"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E104" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E111" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/demos/Overview_demos.xlsx
+++ b/demos/Overview_demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\SdF\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E482E23-D428-4020-8EE5-DB7EE7910DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9522F-9881-41A1-A6A2-35D05076BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="127">
   <si>
     <t>Demo name</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Freek</t>
+  </si>
+  <si>
+    <t>Videotje toevoegen</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2752,6 +2755,9 @@
       <c r="E99" t="s">
         <v>116</v>
       </c>
+      <c r="F99" t="s">
+        <v>126</v>
+      </c>
       <c r="I99" t="s">
         <v>125</v>
       </c>
